--- a/app/config/tables/pediatria/forms/laterounds/laterounds.xlsx
+++ b/app/config/tables/pediatria/forms/laterounds/laterounds.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A911A1-DA73-4DBB-89B9-8A9EEE21756A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B46062-740D-4C1E-B52A-CAE7C838249C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14118,7 +14118,7 @@
         <v>88</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C70" s="15" t="b">
         <v>1</v>
@@ -14140,7 +14140,7 @@
         <v>89</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C72" s="15" t="b">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C74" s="15" t="b">
         <v>1</v>

--- a/app/config/tables/pediatria/forms/laterounds/laterounds.xlsx
+++ b/app/config/tables/pediatria/forms/laterounds/laterounds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B46062-740D-4C1E-B52A-CAE7C838249C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52DCE11-6D92-4635-B359-5331540C9CF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="915">
   <si>
     <t>setting_name</t>
   </si>
@@ -1301,9 +1301,6 @@
     <t>[data('nome')]</t>
   </si>
   <si>
-    <t>Registered rounds</t>
-  </si>
-  <si>
     <t>do section survey</t>
   </si>
   <si>
@@ -1766,9 +1763,6 @@
     <t>data('vpinjVI')</t>
   </si>
   <si>
-    <t>Date of VAS (Sarampo 1)</t>
-  </si>
-  <si>
     <t>Data de VAS (Sarampo 1)</t>
   </si>
   <si>
@@ -1787,9 +1781,6 @@
     <t>Date of VAA (Yellow fever)</t>
   </si>
   <si>
-    <t>Data de VAA (Fevre amarelio)</t>
-  </si>
-  <si>
     <t>data('vfamVI')&gt;=data('dob')|| data('vfamVI')==null</t>
   </si>
   <si>
@@ -1850,9 +1841,6 @@
     <t>VPI</t>
   </si>
   <si>
-    <t>VAA (Fevre amarelio)</t>
-  </si>
-  <si>
     <t>vdcart</t>
   </si>
   <si>
@@ -2111,9 +2099,6 @@
     <t>data('bcgnse') == null</t>
   </si>
   <si>
-    <t>Choose studies</t>
-  </si>
-  <si>
     <t>Choose all studynr prefixes</t>
   </si>
   <si>
@@ -2186,9 +2171,6 @@
     <t>Does the child live in the project area?</t>
   </si>
   <si>
-    <t>A criança vive na area de estudo de PSB ?</t>
-  </si>
-  <si>
     <t>selected(data('project'),'1')</t>
   </si>
   <si>
@@ -2444,12 +2426,6 @@
     <t>If older than 5</t>
   </si>
   <si>
-    <t>Did the child take part in the April 2018 campaign?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A criança tinha participado na campanha de vacinação no mês de Abril de 2018 ? </t>
-  </si>
-  <si>
     <t>data('campest') != null</t>
   </si>
   <si>
@@ -2513,24 +2489,6 @@
     <t>prodiag3n</t>
   </si>
   <si>
-    <t>Pro diagnosis 1</t>
-  </si>
-  <si>
-    <t>Prodiagnostico 1</t>
-  </si>
-  <si>
-    <t>Pro diagnosis 2</t>
-  </si>
-  <si>
-    <t>Prodiagnostico 2</t>
-  </si>
-  <si>
-    <t>Pro diagnosis 3</t>
-  </si>
-  <si>
-    <t>Prodiagnostico 3</t>
-  </si>
-  <si>
     <t>data('prodiag3n') !=null</t>
   </si>
   <si>
@@ -2681,7 +2639,145 @@
     <t>pediatria</t>
   </si>
   <si>
-    <t>Day of round</t>
+    <t>NTN - Não tem cartão e não tem vacinas</t>
+  </si>
+  <si>
+    <t>NTS - Não tem cartão, mas tem vacinas</t>
+  </si>
+  <si>
+    <t>Data desconhecida</t>
+  </si>
+  <si>
+    <t>Status desconhecido</t>
+  </si>
+  <si>
+    <t>Não sabe o número</t>
+  </si>
+  <si>
+    <t>Apenas consulta</t>
+  </si>
+  <si>
+    <t>Admitido para observação</t>
+  </si>
+  <si>
+    <t>Incrustado</t>
+  </si>
+  <si>
+    <t>Nenhum diagnóstico</t>
+  </si>
+  <si>
+    <t>Ainda admitido</t>
+  </si>
+  <si>
+    <t>Viveu descarregado</t>
+  </si>
+  <si>
+    <t>Morreu durante a admissão</t>
+  </si>
+  <si>
+    <t>Deixou</t>
+  </si>
+  <si>
+    <t>Cama desconhecida</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Não realizado</t>
+  </si>
+  <si>
+    <t>Tempo desconhecido</t>
+  </si>
+  <si>
+    <t>Day of check</t>
+  </si>
+  <si>
+    <t>Dia de cheque</t>
+  </si>
+  <si>
+    <t>Assistente</t>
+  </si>
+  <si>
+    <t>Status da criança</t>
+  </si>
+  <si>
+    <t>Registered check(s)</t>
+  </si>
+  <si>
+    <t>Cheque(s) registrado(s)</t>
+  </si>
+  <si>
+    <t>Choose studie(s)</t>
+  </si>
+  <si>
+    <t>Escolha estudoa(s)</t>
+  </si>
+  <si>
+    <t>A criança vive na area de estudo de PSB?</t>
+  </si>
+  <si>
+    <t>Descrição de onde a criança vive</t>
+  </si>
+  <si>
+    <t>As pessoas do projeto vêm pela aldeia?</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Nome da tabanca</t>
+  </si>
+  <si>
+    <t>A mãe está presente?</t>
+  </si>
+  <si>
+    <t>Outra:</t>
+  </si>
+  <si>
+    <t>Date of VAS (Measles 1)</t>
+  </si>
+  <si>
+    <t>Data de VAA (Febre amarela)</t>
+  </si>
+  <si>
+    <t>VAS (Measles 1)</t>
+  </si>
+  <si>
+    <t>VAS (Sarampo 1)</t>
+  </si>
+  <si>
+    <t>VAA (Yellow fever)</t>
+  </si>
+  <si>
+    <t>VAA (Febre amarela)</t>
+  </si>
+  <si>
+    <t>Did the child take part in the May 2019 campaign?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criança tinha participado na campanha de vacinação no mês de Maio de 2019 ? </t>
+  </si>
+  <si>
+    <t>Admission diagnosis 1</t>
+  </si>
+  <si>
+    <t>Diagnóstico de admissão 1</t>
+  </si>
+  <si>
+    <t>Admission diagnosis 2</t>
+  </si>
+  <si>
+    <t>Diagnóstico de admissão 2</t>
+  </si>
+  <si>
+    <t>Admission diagnosis 3</t>
+  </si>
+  <si>
+    <t>Diagnóstico de admissão 3</t>
   </si>
 </sst>
 </file>
@@ -2739,7 +2835,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2832,12 +2928,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2908,7 +2998,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2945,31 +3035,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
@@ -3293,7 +3382,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3302,7 +3391,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3375,7 +3464,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3431,9 +3520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:R439"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G422" sqref="G422:H432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3520,10 +3609,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G3" t="s">
-        <v>882</v>
+        <v>886</v>
+      </c>
+      <c r="H3" t="s">
+        <v>887</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -3542,10 +3634,13 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="G4" t="s">
-        <v>875</v>
+        <v>861</v>
+      </c>
+      <c r="H4" t="s">
+        <v>888</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3573,6 +3668,9 @@
       </c>
       <c r="G7" t="s">
         <v>390</v>
+      </c>
+      <c r="H7" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3586,7 +3684,7 @@
         <v>373</v>
       </c>
       <c r="C9" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -3602,7 +3700,10 @@
         <v>410</v>
       </c>
       <c r="G11" t="s">
-        <v>422</v>
+        <v>890</v>
+      </c>
+      <c r="H11" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -3635,13 +3736,13 @@
         <v>328</v>
       </c>
       <c r="G14" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="H14" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="P14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3655,10 +3756,10 @@
         <v>336</v>
       </c>
       <c r="G15" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="H15" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -3669,24 +3770,24 @@
         <v>329</v>
       </c>
       <c r="G16" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H16" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="P16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D17" s="39" t="s">
-        <v>835</v>
+      <c r="D17" s="38" t="s">
+        <v>821</v>
       </c>
       <c r="E17" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3701,14 +3802,14 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D18" s="39" t="s">
-        <v>836</v>
+      <c r="D18" s="38" t="s">
+        <v>822</v>
       </c>
       <c r="E18" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -3745,7 +3846,7 @@
         <v>373</v>
       </c>
       <c r="C20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3761,13 +3862,13 @@
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="G22" t="s">
+        <v>423</v>
+      </c>
+      <c r="H22" t="s">
         <v>424</v>
-      </c>
-      <c r="H22" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3775,10 +3876,10 @@
         <v>373</v>
       </c>
       <c r="C23" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="R23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3789,10 +3890,10 @@
         <v>321</v>
       </c>
       <c r="G24" t="s">
+        <v>426</v>
+      </c>
+      <c r="H24" t="s">
         <v>427</v>
-      </c>
-      <c r="H24" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -3812,12 +3913,12 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="31"/>
       <c r="B28" t="s">
         <v>373</v>
       </c>
       <c r="C28" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3836,10 +3937,13 @@
         <v>247</v>
       </c>
       <c r="G30" t="s">
-        <v>692</v>
+        <v>892</v>
+      </c>
+      <c r="H30" t="s">
+        <v>893</v>
       </c>
       <c r="Q30" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3849,13 +3953,13 @@
     </row>
     <row r="32" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C32" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="Q32" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,24 +3972,24 @@
         <v>373</v>
       </c>
       <c r="C34" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="Q34" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F35" t="s">
         <v>293</v>
       </c>
       <c r="L35" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="Q35" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3896,16 +4000,16 @@
         <v>293</v>
       </c>
       <c r="G36" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H36" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
       </c>
       <c r="Q36" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3916,24 +4020,24 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q37" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="38" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F38" t="s">
         <v>308</v>
       </c>
       <c r="L38" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="Q38" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3946,24 +4050,24 @@
         <v>373</v>
       </c>
       <c r="C40" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="Q40" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F41" t="s">
         <v>294</v>
       </c>
       <c r="L41" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="Q41" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3974,10 +4078,10 @@
         <v>294</v>
       </c>
       <c r="G42" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H42" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -3991,18 +4095,18 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F44" t="s">
         <v>309</v>
       </c>
       <c r="L44" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4015,24 +4119,24 @@
         <v>373</v>
       </c>
       <c r="C46" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="Q46" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F47" t="s">
         <v>295</v>
       </c>
       <c r="L47" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="Q47" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4043,10 +4147,10 @@
         <v>295</v>
       </c>
       <c r="G48" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H48" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
@@ -4060,18 +4164,18 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F50" t="s">
         <v>310</v>
       </c>
       <c r="L50" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4086,7 +4190,7 @@
     </row>
     <row r="53" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
@@ -4100,13 +4204,13 @@
         <v>319</v>
       </c>
       <c r="G54" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="H54" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="P54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4114,7 +4218,7 @@
         <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F55" t="s">
         <v>284</v>
@@ -4125,15 +4229,15 @@
         <v>373</v>
       </c>
       <c r="C56" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="Q56" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F57" t="s">
         <v>319</v>
@@ -4153,18 +4257,18 @@
       </c>
     </row>
     <row r="60" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
+      <c r="A60" s="31"/>
       <c r="B60" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
+      <c r="A61" s="32"/>
       <c r="B61" t="s">
         <v>373</v>
       </c>
       <c r="C61" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -4183,10 +4287,10 @@
         <v>333</v>
       </c>
       <c r="G63" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H63" t="s">
-        <v>717</v>
+        <v>894</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -4194,10 +4298,10 @@
         <v>373</v>
       </c>
       <c r="C64" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="Q64" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="65" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4211,13 +4315,13 @@
         <v>234</v>
       </c>
       <c r="G65" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="H65" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="Q65" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.25">
@@ -4225,10 +4329,10 @@
         <v>373</v>
       </c>
       <c r="C66" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="Q66" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.25">
@@ -4242,24 +4346,24 @@
         <v>241</v>
       </c>
       <c r="G67" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H67" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="P67" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F68" t="s">
         <v>339</v>
       </c>
       <c r="L68" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.25">
@@ -4272,10 +4376,10 @@
         <v>373</v>
       </c>
       <c r="C70" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="Q70" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
@@ -4289,24 +4393,24 @@
         <v>242</v>
       </c>
       <c r="G71" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H71" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="P71" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F72" t="s">
         <v>339</v>
       </c>
       <c r="L72" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
@@ -4319,10 +4423,10 @@
         <v>373</v>
       </c>
       <c r="C74" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="Q74" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
@@ -4336,24 +4440,24 @@
         <v>243</v>
       </c>
       <c r="G75" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H75" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="P75" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F76" t="s">
         <v>339</v>
       </c>
       <c r="L76" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
@@ -4366,10 +4470,10 @@
         <v>373</v>
       </c>
       <c r="C78" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="Q78" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
@@ -4383,24 +4487,24 @@
         <v>244</v>
       </c>
       <c r="G79" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H79" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="P79" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F80" t="s">
         <v>339</v>
       </c>
       <c r="L80" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
@@ -4413,10 +4517,10 @@
         <v>373</v>
       </c>
       <c r="C82" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="Q82" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
@@ -4430,24 +4534,24 @@
         <v>245</v>
       </c>
       <c r="G83" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H83" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="P83" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F84" t="s">
         <v>339</v>
       </c>
       <c r="L84" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
@@ -4460,10 +4564,10 @@
         <v>373</v>
       </c>
       <c r="C86" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="Q86" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
@@ -4477,24 +4581,24 @@
         <v>246</v>
       </c>
       <c r="G87" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H87" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="P87" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F88" t="s">
         <v>339</v>
       </c>
       <c r="L88" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
@@ -4507,10 +4611,10 @@
         <v>373</v>
       </c>
       <c r="C90" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="Q90" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
@@ -4521,21 +4625,21 @@
         <v>249</v>
       </c>
       <c r="G91" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="P91" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F92" t="s">
         <v>339</v>
       </c>
       <c r="L92" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
@@ -4548,10 +4652,10 @@
         <v>373</v>
       </c>
       <c r="C94" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="Q94" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
@@ -4562,13 +4666,13 @@
         <v>218</v>
       </c>
       <c r="G95" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="H95" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="P95" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
@@ -4587,15 +4691,15 @@
         <v>373</v>
       </c>
       <c r="C97" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="Q97" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F98" t="s">
         <v>218</v>
@@ -4614,10 +4718,10 @@
         <v>373</v>
       </c>
       <c r="C100" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="Q100" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
@@ -4625,16 +4729,19 @@
         <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G101" t="s">
-        <v>849</v>
+        <v>835</v>
+      </c>
+      <c r="H101" t="s">
+        <v>895</v>
       </c>
       <c r="P101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q101" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.25">
@@ -4657,10 +4764,10 @@
         <v>373</v>
       </c>
       <c r="C105" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="Q105" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
@@ -4674,18 +4781,21 @@
         <v>338</v>
       </c>
       <c r="G106" t="s">
-        <v>850</v>
+        <v>836</v>
+      </c>
+      <c r="H106" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C107" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="Q107" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
@@ -4699,7 +4809,10 @@
         <v>252</v>
       </c>
       <c r="G108" t="s">
-        <v>757</v>
+        <v>751</v>
+      </c>
+      <c r="H108" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
@@ -4710,13 +4823,13 @@
         <v>234</v>
       </c>
       <c r="G109" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="H109" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="P109" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
@@ -4727,10 +4840,13 @@
         <v>337</v>
       </c>
       <c r="G110" t="s">
-        <v>760</v>
+        <v>754</v>
+      </c>
+      <c r="H110" t="s">
+        <v>898</v>
       </c>
       <c r="P110" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
@@ -4749,18 +4865,18 @@
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="33"/>
+      <c r="A114" s="32"/>
       <c r="B114" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
+      <c r="A115" s="33"/>
       <c r="B115" t="s">
         <v>373</v>
       </c>
       <c r="C115" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -4776,13 +4892,13 @@
         <v>329</v>
       </c>
       <c r="G117" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H117" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="P117" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -4793,13 +4909,13 @@
         <v>325</v>
       </c>
       <c r="G118" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="H118" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="P118" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -4808,7 +4924,7 @@
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="34"/>
+      <c r="A120" s="33"/>
       <c r="B120" t="s">
         <v>374</v>
       </c>
@@ -4819,7 +4935,7 @@
         <v>373</v>
       </c>
       <c r="C121" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -4835,10 +4951,13 @@
         <v>28</v>
       </c>
       <c r="F123" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="G123" t="s">
-        <v>768</v>
+        <v>762</v>
+      </c>
+      <c r="H123" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -4851,7 +4970,7 @@
         <v>373</v>
       </c>
       <c r="C125" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -4861,24 +4980,24 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F127" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="L127" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F128" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="L128" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.25">
@@ -4892,10 +5011,10 @@
         <v>291</v>
       </c>
       <c r="G129" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="H129" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.25">
@@ -4903,10 +5022,10 @@
         <v>373</v>
       </c>
       <c r="C130" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="Q130" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
@@ -4920,13 +5039,13 @@
         <v>292</v>
       </c>
       <c r="G131" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="H131" t="s">
-        <v>134</v>
+        <v>900</v>
       </c>
       <c r="P131" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
@@ -4939,40 +5058,40 @@
         <v>373</v>
       </c>
       <c r="C133" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="Q133" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F134" t="s">
         <v>324</v>
       </c>
       <c r="L134" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q135" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F136" t="s">
         <v>324</v>
       </c>
       <c r="L136" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.25">
@@ -4991,10 +5110,10 @@
         <v>322</v>
       </c>
       <c r="G138" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H138" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
@@ -5002,10 +5121,10 @@
         <v>373</v>
       </c>
       <c r="C139" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="Q139" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
@@ -5016,13 +5135,13 @@
         <v>323</v>
       </c>
       <c r="G140" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="H140" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="P140" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
@@ -5041,10 +5160,10 @@
         <v>326</v>
       </c>
       <c r="G142" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="H142" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
@@ -5064,12 +5183,12 @@
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A146" s="44"/>
+      <c r="A146" s="43"/>
       <c r="B146" t="s">
         <v>373</v>
       </c>
       <c r="C146" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
@@ -5085,13 +5204,13 @@
         <v>330</v>
       </c>
       <c r="G148" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H148" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="P148" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
@@ -5105,10 +5224,10 @@
         <v>53</v>
       </c>
       <c r="G149" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H149" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
@@ -5117,7 +5236,7 @@
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A151" s="44"/>
+      <c r="A151" s="43"/>
       <c r="B151" t="s">
         <v>374</v>
       </c>
@@ -5128,7 +5247,7 @@
         <v>373</v>
       </c>
       <c r="C152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
@@ -5141,7 +5260,7 @@
         <v>373</v>
       </c>
       <c r="C154" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
@@ -5152,22 +5271,22 @@
         <v>288</v>
       </c>
       <c r="G155" t="s">
+        <v>430</v>
+      </c>
+      <c r="H155" t="s">
         <v>431</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="I155" s="3" t="s">
+      <c r="J155" t="s">
         <v>433</v>
       </c>
-      <c r="J155" t="s">
+      <c r="K155" t="s">
         <v>434</v>
       </c>
-      <c r="K155" t="s">
+      <c r="P155" t="s">
         <v>435</v>
-      </c>
-      <c r="P155" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
@@ -5187,44 +5306,44 @@
         <v>373</v>
       </c>
       <c r="C157" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I157" s="3"/>
       <c r="Q157" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F158" t="s">
         <v>340</v>
       </c>
       <c r="I158" s="3"/>
       <c r="L158" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I159" s="3"/>
       <c r="Q159" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F160" t="s">
         <v>340</v>
       </c>
       <c r="I160" s="3"/>
       <c r="L160" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="2:17" x14ac:dyDescent="0.25">
@@ -5244,7 +5363,7 @@
         <v>373</v>
       </c>
       <c r="C163" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I163" s="3"/>
     </row>
@@ -5256,22 +5375,22 @@
         <v>289</v>
       </c>
       <c r="G164" t="s">
+        <v>444</v>
+      </c>
+      <c r="H164" t="s">
         <v>445</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I164" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="I164" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="J164" t="s">
+        <v>433</v>
+      </c>
+      <c r="K164" t="s">
         <v>434</v>
       </c>
-      <c r="K164" t="s">
+      <c r="P164" t="s">
         <v>435</v>
-      </c>
-      <c r="P164" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="165" spans="2:17" x14ac:dyDescent="0.25">
@@ -5291,44 +5410,44 @@
         <v>373</v>
       </c>
       <c r="C166" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I166" s="3"/>
       <c r="Q166" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="167" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F167" t="s">
         <v>342</v>
       </c>
       <c r="I167" s="3"/>
       <c r="L167" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="168" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I168" s="3"/>
       <c r="Q168" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F169" t="s">
         <v>342</v>
       </c>
       <c r="I169" s="3"/>
       <c r="L169" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="170" spans="2:17" x14ac:dyDescent="0.25">
@@ -5348,10 +5467,10 @@
         <v>373</v>
       </c>
       <c r="C172" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="Q172" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="173" spans="2:17" x14ac:dyDescent="0.25">
@@ -5362,22 +5481,22 @@
         <v>290</v>
       </c>
       <c r="G173" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="H173" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="J173" t="s">
+        <v>433</v>
+      </c>
+      <c r="K173" t="s">
         <v>434</v>
       </c>
-      <c r="K173" t="s">
+      <c r="P173" t="s">
         <v>435</v>
-      </c>
-      <c r="P173" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="174" spans="2:17" x14ac:dyDescent="0.25">
@@ -5397,44 +5516,44 @@
         <v>373</v>
       </c>
       <c r="C175" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="I175" s="3"/>
       <c r="Q175" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="176" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F176" t="s">
         <v>341</v>
       </c>
       <c r="I176" s="3"/>
       <c r="L176" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I177" s="3"/>
       <c r="Q177" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F178" t="s">
         <v>341</v>
       </c>
       <c r="I178" s="3"/>
       <c r="L178" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
@@ -5468,7 +5587,7 @@
         <v>373</v>
       </c>
       <c r="C183" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="I183" s="3"/>
     </row>
@@ -5491,13 +5610,13 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G185" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H185" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
@@ -5511,10 +5630,10 @@
         <v>314</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -5531,7 +5650,7 @@
         <v>373</v>
       </c>
       <c r="C187" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -5547,7 +5666,7 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="188" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5558,10 +5677,10 @@
         <v>318</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -5572,7 +5691,7 @@
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="189" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5583,10 +5702,10 @@
         <v>316</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -5597,7 +5716,7 @@
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="190" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5622,7 +5741,7 @@
         <v>373</v>
       </c>
       <c r="C191" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -5638,10 +5757,10 @@
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F192" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -5649,7 +5768,7 @@
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
@@ -5658,7 +5777,7 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>315</v>
@@ -5669,7 +5788,7 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
@@ -5717,12 +5836,12 @@
       <c r="I196" s="3"/>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A197" s="30"/>
+      <c r="A197" s="29"/>
       <c r="B197" t="s">
         <v>373</v>
       </c>
       <c r="C197" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="I197" s="3"/>
     </row>
@@ -5745,14 +5864,14 @@
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -5775,10 +5894,10 @@
         <v>313</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -5795,7 +5914,7 @@
         <v>373</v>
       </c>
       <c r="C201" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -5811,7 +5930,7 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
       <c r="R201" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
@@ -5822,10 +5941,10 @@
         <v>307</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -5836,7 +5955,7 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
@@ -5847,10 +5966,10 @@
         <v>305</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -5861,7 +5980,7 @@
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
@@ -5886,7 +6005,7 @@
         <v>373</v>
       </c>
       <c r="C205" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -5902,10 +6021,10 @@
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F206" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -5913,7 +6032,7 @@
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
@@ -5922,7 +6041,7 @@
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>317</v>
@@ -5933,7 +6052,7 @@
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
@@ -5962,7 +6081,7 @@
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A210" s="30"/>
+      <c r="A210" s="29"/>
       <c r="B210" t="s">
         <v>374</v>
       </c>
@@ -5973,12 +6092,12 @@
         <v>373</v>
       </c>
       <c r="C211" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="212" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B212" t="s">
         <v>17</v>
@@ -5995,10 +6114,10 @@
         <v>399</v>
       </c>
       <c r="G213" t="s">
+        <v>452</v>
+      </c>
+      <c r="H213" t="s">
         <v>453</v>
-      </c>
-      <c r="H213" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
@@ -6006,15 +6125,15 @@
         <v>373</v>
       </c>
       <c r="C214" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="Q214" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F215" t="s">
         <v>314</v>
@@ -6025,10 +6144,10 @@
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F216" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -6036,7 +6155,7 @@
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
@@ -6053,10 +6172,10 @@
         <v>373</v>
       </c>
       <c r="C218" t="s">
+        <v>454</v>
+      </c>
+      <c r="R218" t="s">
         <v>455</v>
-      </c>
-      <c r="R218" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
@@ -6067,13 +6186,13 @@
         <v>28</v>
       </c>
       <c r="F219" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G219" t="s">
+        <v>456</v>
+      </c>
+      <c r="H219" t="s">
         <v>457</v>
-      </c>
-      <c r="H219" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
@@ -6092,7 +6211,7 @@
         <v>373</v>
       </c>
       <c r="C222" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
@@ -6102,13 +6221,13 @@
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F224" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="L224" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="225" spans="2:18" x14ac:dyDescent="0.25">
@@ -6119,19 +6238,19 @@
         <v>268</v>
       </c>
       <c r="G225" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H225" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H225" s="1" t="s">
+      <c r="I225" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="I225" s="1" t="s">
+      <c r="J225" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="J225" s="1" t="s">
+      <c r="K225" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="K225" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
@@ -6169,7 +6288,7 @@
         <v>373</v>
       </c>
       <c r="C227" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -6184,12 +6303,12 @@
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
       <c r="R227" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="228" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>344</v>
@@ -6200,7 +6319,7 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
@@ -6211,7 +6330,7 @@
     </row>
     <row r="229" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -6226,12 +6345,12 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
       <c r="R229" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="230" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>344</v>
@@ -6242,7 +6361,7 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
@@ -6277,19 +6396,19 @@
         <v>269</v>
       </c>
       <c r="G232" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H232" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="H232" s="1" t="s">
+      <c r="I232" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="I232" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="J232" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K232" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="K232" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
@@ -6315,15 +6434,15 @@
         <v>373</v>
       </c>
       <c r="C234" t="s">
+        <v>471</v>
+      </c>
+      <c r="R234" t="s">
         <v>472</v>
-      </c>
-      <c r="R234" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="235" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>269</v>
@@ -6333,7 +6452,7 @@
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
@@ -6364,7 +6483,7 @@
         <v>373</v>
       </c>
       <c r="C237" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
@@ -6378,12 +6497,12 @@
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
       <c r="R237" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="238" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>332</v>
@@ -6393,7 +6512,7 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
@@ -6404,7 +6523,7 @@
     </row>
     <row r="239" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -6418,12 +6537,12 @@
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
       <c r="R239" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="240" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>332</v>
@@ -6433,7 +6552,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
@@ -6490,19 +6609,19 @@
         <v>270</v>
       </c>
       <c r="G244" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H244" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="H244" s="1" t="s">
+      <c r="I244" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I244" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="J244" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K244" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="K244" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
@@ -6540,7 +6659,7 @@
         <v>373</v>
       </c>
       <c r="C246" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
@@ -6555,12 +6674,12 @@
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
       <c r="R246" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="247" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>352</v>
@@ -6571,7 +6690,7 @@
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
@@ -6582,7 +6701,7 @@
     </row>
     <row r="248" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
@@ -6597,12 +6716,12 @@
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
       <c r="R248" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="249" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>352</v>
@@ -6613,7 +6732,7 @@
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
@@ -6648,19 +6767,19 @@
         <v>271</v>
       </c>
       <c r="G251" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H251" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="H251" s="1" t="s">
+      <c r="I251" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="I251" s="1" t="s">
+      <c r="J251" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="J251" s="1" t="s">
+      <c r="K251" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="K251" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
@@ -6686,15 +6805,15 @@
         <v>373</v>
       </c>
       <c r="C253" t="s">
+        <v>487</v>
+      </c>
+      <c r="R253" t="s">
         <v>488</v>
-      </c>
-      <c r="R253" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="254" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>271</v>
@@ -6704,7 +6823,7 @@
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
@@ -6735,7 +6854,7 @@
         <v>373</v>
       </c>
       <c r="C256" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
@@ -6749,12 +6868,12 @@
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
       <c r="R256" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="257" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>346</v>
@@ -6764,7 +6883,7 @@
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
@@ -6775,7 +6894,7 @@
     </row>
     <row r="258" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -6789,12 +6908,12 @@
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
       <c r="R258" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="259" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>346</v>
@@ -6804,7 +6923,7 @@
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
       <c r="L259" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
@@ -6839,19 +6958,19 @@
         <v>272</v>
       </c>
       <c r="G261" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H261" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="H261" s="1" t="s">
+      <c r="I261" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="I261" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="J261" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K261" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="K261" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
@@ -6876,15 +6995,15 @@
         <v>373</v>
       </c>
       <c r="C263" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="R263" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="264" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>272</v>
@@ -6894,7 +7013,7 @@
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
       <c r="L264" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
@@ -6925,7 +7044,7 @@
         <v>373</v>
       </c>
       <c r="C266" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -6939,12 +7058,12 @@
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
       <c r="R266" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="267" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>349</v>
@@ -6954,7 +7073,7 @@
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
       <c r="L267" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
@@ -6965,7 +7084,7 @@
     </row>
     <row r="268" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -6979,12 +7098,12 @@
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
       <c r="R268" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="269" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>349</v>
@@ -6994,7 +7113,7 @@
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
@@ -7029,19 +7148,19 @@
         <v>273</v>
       </c>
       <c r="G271" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H271" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="H271" s="1" t="s">
+      <c r="I271" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="I271" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="J271" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K271" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="K271" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
@@ -7066,15 +7185,15 @@
         <v>373</v>
       </c>
       <c r="C273" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R273" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="274" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>273</v>
@@ -7084,7 +7203,7 @@
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
@@ -7115,7 +7234,7 @@
         <v>373</v>
       </c>
       <c r="C276" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -7129,12 +7248,12 @@
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
       <c r="R276" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="277" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>334</v>
@@ -7144,7 +7263,7 @@
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
@@ -7155,7 +7274,7 @@
     </row>
     <row r="278" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -7169,12 +7288,12 @@
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
       <c r="R278" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="279" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>334</v>
@@ -7184,7 +7303,7 @@
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
@@ -7229,19 +7348,19 @@
         <v>274</v>
       </c>
       <c r="G283" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="H283" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H283" s="1" t="s">
+      <c r="I283" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="I283" s="1" t="s">
+      <c r="J283" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="J283" s="1" t="s">
+      <c r="K283" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="K283" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
@@ -7279,7 +7398,7 @@
         <v>373</v>
       </c>
       <c r="C285" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -7294,12 +7413,12 @@
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
       <c r="R285" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="286" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>353</v>
@@ -7310,7 +7429,7 @@
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
       <c r="L286" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
@@ -7321,7 +7440,7 @@
     </row>
     <row r="287" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -7336,12 +7455,12 @@
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
       <c r="R287" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="288" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>353</v>
@@ -7352,7 +7471,7 @@
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
       <c r="L288" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
@@ -7387,19 +7506,19 @@
         <v>275</v>
       </c>
       <c r="G290" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H290" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H290" s="1" t="s">
+      <c r="I290" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="I290" s="1" t="s">
+      <c r="J290" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="J290" s="1" t="s">
+      <c r="K290" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="K290" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
@@ -7425,15 +7544,15 @@
         <v>373</v>
       </c>
       <c r="C292" t="s">
+        <v>519</v>
+      </c>
+      <c r="R292" t="s">
         <v>520</v>
-      </c>
-      <c r="R292" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="293" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D293" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>275</v>
@@ -7443,7 +7562,7 @@
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
       <c r="L293" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
@@ -7474,7 +7593,7 @@
         <v>373</v>
       </c>
       <c r="C295" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
@@ -7488,12 +7607,12 @@
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
       <c r="R295" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="296" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>347</v>
@@ -7503,7 +7622,7 @@
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
       <c r="L296" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
@@ -7514,7 +7633,7 @@
     </row>
     <row r="297" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
@@ -7528,12 +7647,12 @@
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
       <c r="R297" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="298" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>347</v>
@@ -7543,7 +7662,7 @@
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
@@ -7578,19 +7697,19 @@
         <v>276</v>
       </c>
       <c r="G300" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H300" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="H300" s="1" t="s">
+      <c r="I300" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="I300" s="1" t="s">
+      <c r="J300" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="J300" s="1" t="s">
+      <c r="K300" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="K300" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
@@ -7615,15 +7734,15 @@
         <v>373</v>
       </c>
       <c r="C302" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R302" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="303" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>276</v>
@@ -7633,7 +7752,7 @@
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
@@ -7664,7 +7783,7 @@
         <v>373</v>
       </c>
       <c r="C305" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -7678,12 +7797,12 @@
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
       <c r="R305" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="306" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>350</v>
@@ -7693,7 +7812,7 @@
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
       <c r="L306" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
@@ -7704,7 +7823,7 @@
     </row>
     <row r="307" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -7718,12 +7837,12 @@
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
       <c r="R307" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="308" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D308" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>350</v>
@@ -7733,7 +7852,7 @@
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
       <c r="L308" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
@@ -7768,19 +7887,19 @@
         <v>277</v>
       </c>
       <c r="G310" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H310" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="H310" s="1" t="s">
+      <c r="I310" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="I310" s="1" t="s">
+      <c r="J310" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="J310" s="1" t="s">
+      <c r="K310" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="K310" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="L310" s="1"/>
       <c r="M310" s="1"/>
@@ -7805,15 +7924,15 @@
         <v>373</v>
       </c>
       <c r="C312" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="R312" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="313" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>277</v>
@@ -7823,7 +7942,7 @@
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
       <c r="L313" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
@@ -7854,7 +7973,7 @@
         <v>373</v>
       </c>
       <c r="C315" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
@@ -7868,12 +7987,12 @@
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
       <c r="R315" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="316" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D316" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>335</v>
@@ -7883,7 +8002,7 @@
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
       <c r="L316" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
@@ -7894,7 +8013,7 @@
     </row>
     <row r="317" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -7908,12 +8027,12 @@
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
       <c r="R317" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="318" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D318" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>335</v>
@@ -7923,7 +8042,7 @@
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
       <c r="L318" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
@@ -7968,19 +8087,19 @@
         <v>278</v>
       </c>
       <c r="G322" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H322" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="H322" s="1" t="s">
+      <c r="I322" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="I322" s="1" t="s">
+      <c r="J322" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="J322" s="1" t="s">
+      <c r="K322" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="K322" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
@@ -8018,7 +8137,7 @@
         <v>373</v>
       </c>
       <c r="C324" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
@@ -8033,12 +8152,12 @@
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
       <c r="R324" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="325" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>354</v>
@@ -8049,7 +8168,7 @@
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
@@ -8060,7 +8179,7 @@
     </row>
     <row r="326" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
@@ -8075,12 +8194,12 @@
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
       <c r="R326" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="327" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D327" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>354</v>
@@ -8091,7 +8210,7 @@
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
       <c r="L327" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
@@ -8126,19 +8245,19 @@
         <v>279</v>
       </c>
       <c r="G329" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H329" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="H329" s="1" t="s">
+      <c r="I329" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="I329" s="1" t="s">
+      <c r="J329" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="J329" s="1" t="s">
+      <c r="K329" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="K329" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="L329" s="1"/>
       <c r="M329" s="1"/>
@@ -8164,15 +8283,15 @@
         <v>373</v>
       </c>
       <c r="C331" t="s">
+        <v>555</v>
+      </c>
+      <c r="R331" t="s">
         <v>556</v>
-      </c>
-      <c r="R331" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="332" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>279</v>
@@ -8182,7 +8301,7 @@
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
       <c r="L332" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
@@ -8213,7 +8332,7 @@
         <v>373</v>
       </c>
       <c r="C334" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
@@ -8227,12 +8346,12 @@
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
       <c r="R334" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="335" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>348</v>
@@ -8242,7 +8361,7 @@
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
       <c r="L335" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
@@ -8253,7 +8372,7 @@
     </row>
     <row r="336" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
@@ -8267,12 +8386,12 @@
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
       <c r="R336" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="337" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>348</v>
@@ -8282,7 +8401,7 @@
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
       <c r="L337" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
@@ -8317,19 +8436,19 @@
         <v>280</v>
       </c>
       <c r="G339" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="H339" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="H339" s="1" t="s">
+      <c r="I339" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="I339" s="1" t="s">
+      <c r="J339" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="J339" s="1" t="s">
+      <c r="K339" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="K339" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="L339" s="1"/>
       <c r="M339" s="1"/>
@@ -8354,15 +8473,15 @@
         <v>373</v>
       </c>
       <c r="C341" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R341" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="342" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>280</v>
@@ -8372,7 +8491,7 @@
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
       <c r="L342" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
@@ -8403,7 +8522,7 @@
         <v>373</v>
       </c>
       <c r="C344" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
@@ -8417,12 +8536,12 @@
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
       <c r="R344" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="345" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>351</v>
@@ -8432,7 +8551,7 @@
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
       <c r="L345" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
@@ -8443,7 +8562,7 @@
     </row>
     <row r="346" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -8457,12 +8576,12 @@
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
       <c r="R346" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="347" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>351</v>
@@ -8472,7 +8591,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
       <c r="L347" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
@@ -8507,19 +8626,19 @@
         <v>281</v>
       </c>
       <c r="G349" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H349" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H349" s="1" t="s">
+      <c r="I349" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="I349" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="J349" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K349" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="K349" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="L349" s="1"/>
       <c r="M349" s="1"/>
@@ -8544,15 +8663,15 @@
         <v>373</v>
       </c>
       <c r="C351" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="R351" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="352" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D352" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>281</v>
@@ -8562,7 +8681,7 @@
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
@@ -8593,7 +8712,7 @@
         <v>373</v>
       </c>
       <c r="C354" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
@@ -8607,12 +8726,12 @@
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="355" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D355" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>355</v>
@@ -8622,7 +8741,7 @@
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
       <c r="L355" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
@@ -8633,7 +8752,7 @@
     </row>
     <row r="356" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
@@ -8647,12 +8766,12 @@
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="357" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D357" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>355</v>
@@ -8662,7 +8781,7 @@
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
       <c r="L357" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
@@ -8707,19 +8826,19 @@
         <v>282</v>
       </c>
       <c r="G361" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I361" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="H361" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="I361" s="1" t="s">
-        <v>579</v>
-      </c>
       <c r="J361" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K361" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="K361" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="L361" s="1"/>
       <c r="M361" s="1"/>
@@ -8757,7 +8876,7 @@
         <v>373</v>
       </c>
       <c r="C363" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
@@ -8772,12 +8891,12 @@
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
       <c r="R363" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="364" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D364" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>356</v>
@@ -8788,7 +8907,7 @@
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
       <c r="L364" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
@@ -8799,7 +8918,7 @@
     </row>
     <row r="365" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
@@ -8814,12 +8933,12 @@
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
       <c r="R365" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="366" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D366" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>356</v>
@@ -8830,7 +8949,7 @@
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
       <c r="L366" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
@@ -8865,19 +8984,19 @@
         <v>283</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>584</v>
+        <v>902</v>
       </c>
       <c r="I368" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="J368" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K368" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="K368" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="L368" s="1"/>
       <c r="M368" s="1"/>
@@ -8902,15 +9021,15 @@
         <v>373</v>
       </c>
       <c r="C370" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="R370" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D371" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>281</v>
@@ -8920,7 +9039,7 @@
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
       <c r="L371" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
@@ -8951,7 +9070,7 @@
         <v>373</v>
       </c>
       <c r="C373" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
@@ -8965,12 +9084,12 @@
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
       <c r="R373" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D374" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>345</v>
@@ -8980,7 +9099,7 @@
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
       <c r="L374" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
@@ -8991,7 +9110,7 @@
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
@@ -9005,12 +9124,12 @@
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
       <c r="R375" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D376" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>345</v>
@@ -9020,7 +9139,7 @@
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
       <c r="L376" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
@@ -9076,10 +9195,10 @@
         <v>373</v>
       </c>
       <c r="C380" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="R380" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.25">
@@ -9092,13 +9211,13 @@
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D382" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F382" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="L382" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.25">
@@ -9114,6 +9233,9 @@
       <c r="G383" t="s">
         <v>189</v>
       </c>
+      <c r="H383" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D384" t="s">
@@ -9126,20 +9248,23 @@
         <v>332</v>
       </c>
       <c r="G384" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="H384" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="385" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D387" t="s">
         <v>9</v>
       </c>
@@ -9150,10 +9275,13 @@
         <v>352</v>
       </c>
       <c r="G387" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="H387" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="388" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D388" t="s">
         <v>9</v>
       </c>
@@ -9164,10 +9292,13 @@
         <v>353</v>
       </c>
       <c r="G388" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+      <c r="H388" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="389" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D389" t="s">
         <v>9</v>
       </c>
@@ -9178,20 +9309,23 @@
         <v>354</v>
       </c>
       <c r="G389" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="H389" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="390" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D392" t="s">
         <v>9</v>
       </c>
@@ -9202,10 +9336,13 @@
         <v>346</v>
       </c>
       <c r="G392" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="393" spans="2:7" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+      <c r="H392" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="393" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D393" t="s">
         <v>9</v>
       </c>
@@ -9216,10 +9353,13 @@
         <v>347</v>
       </c>
       <c r="G393" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="394" spans="2:7" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+      <c r="H393" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="394" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D394" t="s">
         <v>9</v>
       </c>
@@ -9230,20 +9370,23 @@
         <v>348</v>
       </c>
       <c r="G394" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="395" spans="2:7" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="H394" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="395" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="397" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D397" t="s">
         <v>9</v>
       </c>
@@ -9254,10 +9397,13 @@
         <v>349</v>
       </c>
       <c r="G397" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="398" spans="2:7" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="H397" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="398" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D398" t="s">
         <v>9</v>
       </c>
@@ -9268,10 +9414,13 @@
         <v>350</v>
       </c>
       <c r="G398" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="399" spans="2:7" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+      <c r="H398" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="399" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D399" t="s">
         <v>9</v>
       </c>
@@ -9282,10 +9431,13 @@
         <v>351</v>
       </c>
       <c r="G399" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="400" spans="2:7" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+      <c r="H399" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="400" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>18</v>
       </c>
@@ -9306,7 +9458,10 @@
         <v>334</v>
       </c>
       <c r="G402" t="s">
-        <v>602</v>
+        <v>599</v>
+      </c>
+      <c r="H402" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="403" spans="1:16" x14ac:dyDescent="0.25">
@@ -9320,7 +9475,10 @@
         <v>335</v>
       </c>
       <c r="G403" t="s">
-        <v>603</v>
+        <v>600</v>
+      </c>
+      <c r="H403" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="404" spans="1:16" x14ac:dyDescent="0.25">
@@ -9344,7 +9502,10 @@
         <v>355</v>
       </c>
       <c r="G406" t="s">
-        <v>604</v>
+        <v>601</v>
+      </c>
+      <c r="H406" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="407" spans="1:16" x14ac:dyDescent="0.25">
@@ -9358,7 +9519,10 @@
         <v>356</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>577</v>
+        <v>903</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="408" spans="1:16" x14ac:dyDescent="0.25">
@@ -9372,7 +9536,10 @@
         <v>345</v>
       </c>
       <c r="G408" t="s">
-        <v>605</v>
+        <v>905</v>
+      </c>
+      <c r="H408" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="409" spans="1:16" x14ac:dyDescent="0.25">
@@ -9416,10 +9583,10 @@
         <v>311</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>803</v>
+        <v>907</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>804</v>
+        <v>908</v>
       </c>
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
@@ -9441,10 +9608,10 @@
         <v>312</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H413" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
@@ -9457,18 +9624,18 @@
     </row>
     <row r="414" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D414" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
       <c r="K414" s="1"/>
-      <c r="L414" s="35">
-        <v>1804</v>
+      <c r="L414" s="34">
+        <v>1905</v>
       </c>
       <c r="M414" s="1"/>
       <c r="N414" s="1"/>
@@ -9480,7 +9647,7 @@
         <v>373</v>
       </c>
       <c r="C415" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
@@ -9496,10 +9663,10 @@
     </row>
     <row r="416" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D416" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
@@ -9507,7 +9674,7 @@
       <c r="J416" s="1"/>
       <c r="K416" s="1"/>
       <c r="L416" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="M416" s="1"/>
       <c r="N416" s="1"/>
@@ -9547,7 +9714,7 @@
         <v>373</v>
       </c>
       <c r="C420" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="421" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9566,10 +9733,10 @@
         <v>368</v>
       </c>
       <c r="G422" t="s">
-        <v>826</v>
+        <v>909</v>
       </c>
       <c r="H422" t="s">
-        <v>827</v>
+        <v>910</v>
       </c>
     </row>
     <row r="423" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9588,12 +9755,12 @@
         <v>373</v>
       </c>
       <c r="C424" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="425" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D425" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F425" t="s">
         <v>368</v>
@@ -9618,10 +9785,10 @@
         <v>369</v>
       </c>
       <c r="G427" t="s">
-        <v>828</v>
+        <v>911</v>
       </c>
       <c r="H427" t="s">
-        <v>829</v>
+        <v>912</v>
       </c>
     </row>
     <row r="428" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9640,12 +9807,12 @@
         <v>373</v>
       </c>
       <c r="C429" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
     </row>
     <row r="430" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D430" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F430" t="s">
         <v>369</v>
@@ -9667,13 +9834,13 @@
         <v>357</v>
       </c>
       <c r="F432" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G432" t="s">
-        <v>830</v>
+        <v>913</v>
       </c>
       <c r="H432" t="s">
-        <v>831</v>
+        <v>914</v>
       </c>
     </row>
     <row r="433" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9684,7 +9851,7 @@
         <v>371</v>
       </c>
       <c r="F433" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="434" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9692,15 +9859,15 @@
         <v>373</v>
       </c>
       <c r="C434" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
     </row>
     <row r="435" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D435" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F435" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="L435">
         <v>9999</v>
@@ -9741,7 +9908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
+    <sheetView topLeftCell="A125" workbookViewId="0">
       <selection activeCell="A136" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -9750,7 +9917,7 @@
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -9971,7 +10138,9 @@
       <c r="C15" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -9983,7 +10152,9 @@
       <c r="C16" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -10516,7 +10687,9 @@
       <c r="C53" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -10528,7 +10701,9 @@
       <c r="C54" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -10568,7 +10743,9 @@
       <c r="C57" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
@@ -10650,7 +10827,9 @@
       <c r="C63" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -10662,7 +10841,9 @@
       <c r="C64" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
@@ -10690,7 +10871,9 @@
       <c r="C66" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -10982,7 +11165,9 @@
       <c r="C87" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="7"/>
+      <c r="D87" s="7" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
@@ -10994,7 +11179,9 @@
       <c r="C88" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="7" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -11034,7 +11221,9 @@
       <c r="C91" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D91" s="5"/>
+      <c r="D91" s="5" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -11046,7 +11235,9 @@
       <c r="C92" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D92" s="5"/>
+      <c r="D92" s="5" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
@@ -11086,7 +11277,9 @@
       <c r="C95" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="7" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
@@ -11098,7 +11291,9 @@
       <c r="C96" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
@@ -11138,7 +11333,9 @@
       <c r="C99" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D99" s="5"/>
+      <c r="D99" s="5" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -11150,7 +11347,9 @@
       <c r="C100" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D100" s="5"/>
+      <c r="D100" s="5" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
@@ -11190,7 +11389,9 @@
       <c r="C103" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="7" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -11202,11 +11403,13 @@
       <c r="C104" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D104" s="7"/>
+      <c r="D104" s="7" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
@@ -12234,7 +12437,9 @@
       <c r="C168" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D168" s="7"/>
+      <c r="D168" s="7" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
@@ -12246,20 +12451,22 @@
       <c r="C169" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D169" s="7"/>
+      <c r="D169" s="7" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="29" t="s">
+      <c r="A170" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B170" s="29" t="str">
+      <c r="B170" s="5" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
-      <c r="C170" s="29" t="s">
+      <c r="C170" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D170" s="29" t="s">
+      <c r="D170" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -12274,7 +12481,9 @@
       <c r="C171" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="D171" s="7"/>
+      <c r="D171" s="7" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
@@ -12287,7 +12496,9 @@
       <c r="C172" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D172" s="7"/>
+      <c r="D172" s="7" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
@@ -12300,7 +12511,9 @@
       <c r="C173" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="D173" s="7"/>
+      <c r="D173" s="7" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
@@ -12313,7 +12526,9 @@
       <c r="C174" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D174" s="5"/>
+      <c r="D174" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
@@ -12326,7 +12541,9 @@
       <c r="C175" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D175" s="5"/>
+      <c r="D175" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
@@ -12339,7 +12556,9 @@
       <c r="C176" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D176" s="5"/>
+      <c r="D176" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
@@ -12352,7 +12571,9 @@
       <c r="C177" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D177" s="5"/>
+      <c r="D177" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
@@ -12365,7 +12586,9 @@
       <c r="C178" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D178" s="5"/>
+      <c r="D178" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
@@ -12378,7 +12601,9 @@
       <c r="C179" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D179" s="5"/>
+      <c r="D179" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
@@ -12391,7 +12616,9 @@
       <c r="C180" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D180" s="5"/>
+      <c r="D180" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
@@ -12404,7 +12631,9 @@
       <c r="C181" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D181" s="5"/>
+      <c r="D181" s="5" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
@@ -12417,7 +12646,9 @@
       <c r="C182" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D182" s="5"/>
+      <c r="D182" s="5" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
@@ -12430,7 +12661,9 @@
       <c r="C183" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D183" s="5"/>
+      <c r="D183" s="5" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
@@ -12443,7 +12676,9 @@
       <c r="C184" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D184" s="7"/>
+      <c r="D184" s="7" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
@@ -12456,7 +12691,9 @@
       <c r="C185" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D185" s="5"/>
+      <c r="D185" s="5" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
@@ -12469,7 +12706,9 @@
       <c r="C186" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D186" s="5"/>
+      <c r="D186" s="5" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
@@ -12482,7 +12721,9 @@
       <c r="C187" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D187" s="5"/>
+      <c r="D187" s="5" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
@@ -12495,7 +12736,9 @@
       <c r="C188" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D188" s="5"/>
+      <c r="D188" s="5" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
@@ -12507,20 +12750,22 @@
       <c r="C189" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D189" s="7"/>
+      <c r="D189" s="7" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -12528,13 +12773,13 @@
         <v>393</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -12542,13 +12787,13 @@
         <v>393</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -12556,13 +12801,13 @@
         <v>393</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -12570,13 +12815,13 @@
         <v>393</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -12584,13 +12829,13 @@
         <v>393</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -12598,13 +12843,13 @@
         <v>393</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -12612,13 +12857,13 @@
         <v>393</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -12626,13 +12871,13 @@
         <v>393</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -12640,13 +12885,13 @@
         <v>393</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -12654,13 +12899,13 @@
         <v>393</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -12668,13 +12913,13 @@
         <v>393</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -12682,13 +12927,13 @@
         <v>393</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -12702,7 +12947,7 @@
         <v>407</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -12716,7 +12961,9 @@
       <c r="C204" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="D204" s="7"/>
+      <c r="D204" s="7" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
@@ -12729,7 +12976,9 @@
       <c r="C205" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D205" s="5"/>
+      <c r="D205" s="5" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
@@ -12742,7 +12991,9 @@
       <c r="C206" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D206" s="5"/>
+      <c r="D206" s="5" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
@@ -12755,7 +13006,9 @@
       <c r="C207" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D207" s="5"/>
+      <c r="D207" s="5" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
@@ -12768,50 +13021,58 @@
       <c r="C208" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D208" s="5"/>
+      <c r="D208" s="5" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="D209" s="7"/>
+        <v>637</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="D210" s="7"/>
+        <v>638</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="D211" s="7"/>
+        <v>639</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -12826,119 +13087,119 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>61</v>
@@ -12951,33 +13212,37 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="40" t="s">
-        <v>652</v>
+      <c r="A222" s="39" t="s">
+        <v>648</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>231</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="D222" s="5"/>
+        <v>649</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="D223" s="7"/>
+        <v>638</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -12992,212 +13257,212 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B225" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
-      <c r="C225" s="41" t="s">
-        <v>854</v>
-      </c>
-      <c r="D225" s="41" t="s">
-        <v>854</v>
+      <c r="C225" s="40" t="s">
+        <v>840</v>
+      </c>
+      <c r="D225" s="40" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B226" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C226" s="42" t="s">
-        <v>855</v>
-      </c>
-      <c r="D226" s="42" t="s">
-        <v>855</v>
+      <c r="C226" s="41" t="s">
+        <v>841</v>
+      </c>
+      <c r="D226" s="41" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B227" s="5" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
-      <c r="C227" s="42" t="s">
-        <v>856</v>
-      </c>
-      <c r="D227" s="42" t="s">
-        <v>856</v>
+      <c r="C227" s="41" t="s">
+        <v>842</v>
+      </c>
+      <c r="D227" s="41" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B228" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C228" s="42" t="s">
-        <v>857</v>
-      </c>
-      <c r="D228" s="42" t="s">
-        <v>857</v>
+      <c r="C228" s="41" t="s">
+        <v>843</v>
+      </c>
+      <c r="D228" s="41" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B229" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C229" s="42" t="s">
-        <v>858</v>
-      </c>
-      <c r="D229" s="42" t="s">
-        <v>858</v>
+      <c r="C229" s="41" t="s">
+        <v>844</v>
+      </c>
+      <c r="D229" s="41" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B230" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C230" s="42" t="s">
-        <v>859</v>
-      </c>
-      <c r="D230" s="42" t="s">
-        <v>859</v>
+      <c r="C230" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="D230" s="41" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B231" s="5" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
-      <c r="C231" s="42" t="s">
-        <v>860</v>
-      </c>
-      <c r="D231" s="42" t="s">
-        <v>860</v>
+      <c r="C231" s="41" t="s">
+        <v>846</v>
+      </c>
+      <c r="D231" s="41" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B232" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C232" s="42" t="s">
-        <v>861</v>
-      </c>
-      <c r="D232" s="42" t="s">
-        <v>861</v>
+      <c r="C232" s="41" t="s">
+        <v>847</v>
+      </c>
+      <c r="D232" s="41" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B233" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C233" s="42" t="s">
-        <v>862</v>
-      </c>
-      <c r="D233" s="42" t="s">
-        <v>862</v>
+      <c r="C233" s="41" t="s">
+        <v>848</v>
+      </c>
+      <c r="D233" s="41" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B234" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C234" s="42" t="s">
-        <v>863</v>
-      </c>
-      <c r="D234" s="42" t="s">
-        <v>863</v>
+      <c r="C234" s="41" t="s">
+        <v>849</v>
+      </c>
+      <c r="D234" s="41" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B235" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C235" s="42" t="s">
-        <v>864</v>
-      </c>
-      <c r="D235" s="42" t="s">
-        <v>864</v>
+      <c r="C235" s="41" t="s">
+        <v>850</v>
+      </c>
+      <c r="D235" s="41" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B236" s="5" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
-      <c r="C236" s="42" t="s">
-        <v>865</v>
-      </c>
-      <c r="D236" s="42" t="s">
-        <v>865</v>
+      <c r="C236" s="41" t="s">
+        <v>851</v>
+      </c>
+      <c r="D236" s="41" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B237" s="5" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
-      <c r="C237" s="42" t="s">
-        <v>866</v>
-      </c>
-      <c r="D237" s="42" t="s">
-        <v>866</v>
+      <c r="C237" s="41" t="s">
+        <v>852</v>
+      </c>
+      <c r="D237" s="41" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B238" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C238" s="42" t="s">
-        <v>867</v>
-      </c>
-      <c r="D238" s="42" t="s">
-        <v>867</v>
+      <c r="C238" s="41" t="s">
+        <v>853</v>
+      </c>
+      <c r="D238" s="41" t="s">
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -13278,26 +13543,26 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>835</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>838</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
-        <v>842</v>
+      <c r="A2" s="37" t="s">
+        <v>821</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>824</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>836</v>
+      <c r="A3" s="38" t="s">
+        <v>822</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13339,7 +13604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+    <sheetView topLeftCell="A132" workbookViewId="0">
       <selection activeCell="A132" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -13378,7 +13643,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>35</v>
@@ -13466,7 +13731,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>19</v>
@@ -13477,7 +13742,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>8</v>
@@ -13587,7 +13852,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>8</v>
@@ -13598,7 +13863,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>8</v>
@@ -13609,7 +13874,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>8</v>
@@ -13620,7 +13885,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>35</v>
@@ -13840,7 +14105,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>19</v>
@@ -13939,7 +14204,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>9</v>
@@ -13972,7 +14237,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>8</v>
@@ -14775,7 +15040,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>8</v>
@@ -14808,7 +15073,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>145</v>
@@ -14818,162 +15083,162 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="34" t="s">
-        <v>868</v>
-      </c>
-      <c r="B134" s="34" t="s">
+      <c r="A134" s="33" t="s">
+        <v>854</v>
+      </c>
+      <c r="B134" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="34" t="b">
+      <c r="C134" s="33" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="43" t="s">
-        <v>871</v>
-      </c>
-      <c r="B135" s="43" t="s">
+      <c r="A135" s="42" t="s">
+        <v>857</v>
+      </c>
+      <c r="B135" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="43" t="b">
+      <c r="C135" s="42" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="36" t="s">
+      <c r="A136" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="B136" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="B137" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="35" t="s">
         <v>681</v>
       </c>
-      <c r="B136" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="36" t="b">
+      <c r="B138" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="36" t="s">
-        <v>686</v>
-      </c>
-      <c r="B137" s="36" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="B139" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="B140" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="B141" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="36" t="s">
+        <v>679</v>
+      </c>
+      <c r="B142" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" s="36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="36" t="s">
+        <v>837</v>
+      </c>
+      <c r="B143" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="B144" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="29" t="s">
+        <v>858</v>
+      </c>
+      <c r="B145" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="B146" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="36" t="b">
+      <c r="C146" s="29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="36" t="s">
-        <v>685</v>
-      </c>
-      <c r="B138" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="B139" s="36" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="B147" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="B140" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="36" t="s">
-        <v>399</v>
-      </c>
-      <c r="B141" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="37" t="s">
-        <v>683</v>
-      </c>
-      <c r="B142" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="37" t="s">
-        <v>851</v>
-      </c>
-      <c r="B143" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="37" t="s">
-        <v>767</v>
-      </c>
-      <c r="B144" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="30" t="s">
-        <v>872</v>
-      </c>
-      <c r="B145" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="30" t="s">
-        <v>684</v>
-      </c>
-      <c r="B146" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="B147" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="30" t="b">
+      <c r="C147" s="29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="20" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="B148" s="20" t="s">
         <v>8</v>
@@ -15006,7 +15271,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="20" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B151" s="20" t="s">
         <v>8</v>
@@ -15017,7 +15282,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="20" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B152" s="20" t="s">
         <v>19</v>
@@ -15028,7 +15293,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="20" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B153" s="20" t="s">
         <v>19</v>
@@ -15039,7 +15304,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="20" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B154" s="20" t="s">
         <v>19</v>
@@ -15050,7 +15315,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="20" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B155" s="20" t="s">
         <v>19</v>
@@ -15061,7 +15326,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="20" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B156" s="20" t="s">
         <v>306</v>
@@ -15072,7 +15337,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="20" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B157" s="20" t="s">
         <v>19</v>
@@ -15083,7 +15348,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="20" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B158" s="20" t="s">
         <v>19</v>
@@ -15094,7 +15359,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="20" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B159" s="20" t="s">
         <v>19</v>
@@ -15127,7 +15392,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="20" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B162" s="20" t="s">
         <v>35</v>
@@ -15138,7 +15403,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="20" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B163" s="20" t="s">
         <v>35</v>
@@ -15149,7 +15414,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="20" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B164" s="20" t="s">
         <v>19</v>
@@ -15182,7 +15447,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>145</v>
@@ -15193,7 +15458,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>145</v>
@@ -15204,7 +15469,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>19</v>
@@ -15215,7 +15480,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>145</v>
@@ -15226,7 +15491,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>145</v>
@@ -15237,7 +15502,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>145</v>
@@ -15248,7 +15513,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>145</v>
@@ -15270,7 +15535,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>35</v>
@@ -15281,7 +15546,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>145</v>
@@ -15292,7 +15557,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>145</v>
@@ -15356,7 +15621,7 @@
         <v>418</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -15379,15 +15644,15 @@
         <v>421</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>876</v>
-      </c>
-      <c r="H2" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="B3" t="s">
         <v>409</v>
@@ -15399,10 +15664,10 @@
         <v>377</v>
       </c>
       <c r="E3" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>419</v>
@@ -15411,12 +15676,12 @@
         <v>419</v>
       </c>
       <c r="I3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="B4" t="s">
         <v>409</v>
@@ -15428,10 +15693,10 @@
         <v>377</v>
       </c>
       <c r="E4" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>419</v>
@@ -15440,7 +15705,7 @@
         <v>419</v>
       </c>
       <c r="I4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
